--- a/data/trans_dic/P79$recibos_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P79$recibos_2023-Edad-trans_dic.xlsx
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.05243526009135113</v>
+        <v>0.05788654863993129</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1059711813947634</v>
+        <v>0.106366542985653</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.08988436791967001</v>
+        <v>0.0903818711021384</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1472075913488792</v>
+        <v>0.1543685809214875</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2038599091229196</v>
+        <v>0.2077287940997714</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1588211296797037</v>
+        <v>0.1651042026450334</v>
       </c>
     </row>
     <row r="7">
@@ -622,7 +622,7 @@
         <v>0.07262038735475713</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.09263799246965608</v>
+        <v>0.09263799246965607</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>0.08278767820977333</v>
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.04932860768093252</v>
+        <v>0.04776191073946653</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.06528462114711209</v>
+        <v>0.06717826240429559</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.06250865663908425</v>
+        <v>0.06363184884992806</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1056614515294245</v>
+        <v>0.1055920560751842</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1214824804655317</v>
+        <v>0.1230687526618152</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.102885716197484</v>
+        <v>0.1060090152587514</v>
       </c>
     </row>
     <row r="10">
@@ -680,7 +680,7 @@
         <v>0.07645347204999924</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.07077658410166451</v>
+        <v>0.07077658410166453</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.04711559509632842</v>
+        <v>0.04822729556357724</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.05922981309613608</v>
+        <v>0.05837894002416876</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.05759656336037607</v>
+        <v>0.05695837516779242</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.0914598127371279</v>
+        <v>0.08851085116080699</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.09957755052619773</v>
+        <v>0.09443643094124604</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.08526692101996193</v>
+        <v>0.08577647369759026</v>
       </c>
     </row>
     <row r="13">
@@ -735,7 +735,7 @@
         <v>0.08578296562777933</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.08426600587656891</v>
+        <v>0.08426600587656889</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.06394855386594862</v>
+        <v>0.06167301297255523</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.06980713823329154</v>
+        <v>0.07101994486874241</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.06927586991592327</v>
+        <v>0.07132418570626026</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1073987866122177</v>
+        <v>0.1022447379349072</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1033196538506322</v>
+        <v>0.1037509784106792</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.09804824904211878</v>
+        <v>0.09767483536635478</v>
       </c>
     </row>
     <row r="16">
@@ -784,7 +784,7 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.1025796105051035</v>
+        <v>0.1025796105051034</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>0.1150484039958376</v>
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.08036561250682381</v>
+        <v>0.07904865723126099</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.09493504355963896</v>
+        <v>0.09431378345808319</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.09409067334811927</v>
+        <v>0.09405138086176619</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1257775126335914</v>
+        <v>0.1263227671771265</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1368855877272914</v>
+        <v>0.136323800722542</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1266575807514215</v>
+        <v>0.1255442915966638</v>
       </c>
     </row>
     <row r="19">
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.07107231467853846</v>
+        <v>0.07340401000773493</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.07729730646667134</v>
+        <v>0.07789793768388839</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.08007564616734761</v>
+        <v>0.08156812217011172</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.1215665008373536</v>
+        <v>0.1208896547992794</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.1203588447076356</v>
+        <v>0.1200870713005774</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.1126143419741521</v>
+        <v>0.1131526349506639</v>
       </c>
     </row>
     <row r="22">
@@ -894,10 +894,10 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>0.09632498724385365</v>
+        <v>0.09632498724385363</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.09370896291424184</v>
+        <v>0.09370896291424183</v>
       </c>
       <c r="E22" s="5" t="n">
         <v>0.09477480062151361</v>
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.07192400185737791</v>
+        <v>0.07035027601831505</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.07370775687515901</v>
+        <v>0.07424953314715237</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.07821296727656388</v>
+        <v>0.07888381763897781</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.1307591865345333</v>
+        <v>0.1285344989720702</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1184080319676205</v>
+        <v>0.1161361793534984</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1126537458403276</v>
+        <v>0.1128430957058462</v>
       </c>
     </row>
     <row r="25">
@@ -949,13 +949,13 @@
         </is>
       </c>
       <c r="C25" s="5" t="n">
-        <v>0.08585336246500291</v>
+        <v>0.0858533624650029</v>
       </c>
       <c r="D25" s="5" t="n">
         <v>0.09829051674536146</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>0.09222982829047145</v>
+        <v>0.09222982829047144</v>
       </c>
     </row>
     <row r="26">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.07576401539497515</v>
+        <v>0.07548441360341041</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.08907230973986807</v>
+        <v>0.08975434944558659</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.08588693945878557</v>
+        <v>0.08562504356242095</v>
       </c>
     </row>
     <row r="27">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.0960666752882726</v>
+        <v>0.09628310566691653</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.1071413780779731</v>
+        <v>0.1088401850974085</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.09956896238115899</v>
+        <v>0.09949136829577607</v>
       </c>
     </row>
     <row r="28">
@@ -1134,13 +1134,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>19822</v>
+        <v>21883</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>35748</v>
+        <v>35881</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>64300</v>
+        <v>64656</v>
       </c>
     </row>
     <row r="7">
@@ -1151,13 +1151,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>55648</v>
+        <v>58355</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>68769</v>
+        <v>70075</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>113615</v>
+        <v>118110</v>
       </c>
     </row>
     <row r="8">
@@ -1206,13 +1206,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>23148</v>
+        <v>22413</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>31621</v>
+        <v>32539</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>59610</v>
+        <v>60681</v>
       </c>
     </row>
     <row r="11">
@@ -1223,13 +1223,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>49583</v>
+        <v>49550</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>58841</v>
+        <v>59610</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>98114</v>
+        <v>101092</v>
       </c>
     </row>
     <row r="12">
@@ -1278,13 +1278,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>28255</v>
+        <v>28921</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>35835</v>
+        <v>35320</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>69387</v>
+        <v>68618</v>
       </c>
     </row>
     <row r="15">
@@ -1295,13 +1295,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>54848</v>
+        <v>53079</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>60245</v>
+        <v>57135</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>102721</v>
+        <v>103335</v>
       </c>
     </row>
     <row r="16">
@@ -1350,13 +1350,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>43641</v>
+        <v>42088</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>50059</v>
+        <v>50928</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>96954</v>
+        <v>99821</v>
       </c>
     </row>
     <row r="19">
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>73293</v>
+        <v>69776</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>74090</v>
+        <v>74400</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>137222</v>
+        <v>136700</v>
       </c>
     </row>
     <row r="20">
@@ -1422,13 +1422,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>47474</v>
+        <v>46696</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>55684</v>
+        <v>55320</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>110771</v>
+        <v>110724</v>
       </c>
     </row>
     <row r="23">
@@ -1439,13 +1439,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>74300</v>
+        <v>74622</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>80290</v>
+        <v>79960</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>149111</v>
+        <v>147800</v>
       </c>
     </row>
     <row r="24">
@@ -1494,13 +1494,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>28184</v>
+        <v>29109</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>32958</v>
+        <v>33214</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>65898</v>
+        <v>67126</v>
       </c>
     </row>
     <row r="27">
@@ -1511,13 +1511,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>48208</v>
+        <v>47940</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>51319</v>
+        <v>51203</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>92675</v>
+        <v>93118</v>
       </c>
     </row>
     <row r="28">
@@ -1566,13 +1566,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>21873</v>
+        <v>21395</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>32602</v>
+        <v>32842</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>58380</v>
+        <v>58881</v>
       </c>
     </row>
     <row r="31">
@@ -1583,13 +1583,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>39766</v>
+        <v>39089</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>52373</v>
+        <v>51369</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>84088</v>
+        <v>84229</v>
       </c>
     </row>
     <row r="32">
@@ -1638,13 +1638,13 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>259175</v>
+        <v>258219</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>320576</v>
+        <v>323031</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>602915</v>
+        <v>601077</v>
       </c>
     </row>
     <row r="35">
@@ -1655,13 +1655,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>328627</v>
+        <v>329367</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>385607</v>
+        <v>391722</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>698961</v>
+        <v>698417</v>
       </c>
     </row>
     <row r="36">
